--- a/Tài liệu/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/Tài liệu/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-Class_List\Full_Time\C0622G1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codegym\module_3\Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A45EDE-7FDC-4D57-93D5-B816E3A4621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="816" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <sheet name="hop_dong" sheetId="15" r:id="rId13"/>
     <sheet name="hop_dong_chi_tiet" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,6 +40,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pato</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1233,27 +1236,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1530,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1588,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1614,7 +1613,7 @@
       <c r="C4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -1623,7 +1622,7 @@
       <c r="C5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1632,7 +1631,7 @@
       <c r="C6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1641,7 +1640,7 @@
       <c r="C7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,10 +1649,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1716,7 +1715,7 @@
       <c r="M4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -1746,7 +1745,7 @@
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>135</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1755,7 +1754,7 @@
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1779,13 +1778,13 @@
       <c r="H6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>135</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>135</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1794,7 +1793,7 @@
       <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1818,13 +1817,13 @@
       <c r="H7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="2" t="s">
         <v>336</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1833,7 +1832,7 @@
       <c r="M7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -1863,7 +1862,7 @@
       <c r="J8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>135</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1872,7 +1871,7 @@
       <c r="M8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="O8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1896,13 +1895,13 @@
       <c r="H9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>135</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>135</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1911,7 +1910,7 @@
       <c r="M9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -1935,13 +1934,13 @@
       <c r="H10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="2" t="s">
         <v>337</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1950,7 +1949,7 @@
       <c r="M10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1960,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1997,7 +1996,7 @@
       <c r="F4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -2015,7 +2014,7 @@
       <c r="F5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -2033,7 +2032,7 @@
       <c r="F6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -2051,7 +2050,7 @@
       <c r="F7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -2069,7 +2068,7 @@
       <c r="F8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -2087,7 +2086,7 @@
       <c r="F9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -2105,7 +2104,7 @@
       <c r="F10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2114,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2160,7 +2159,7 @@
       <c r="H4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -2184,7 +2183,7 @@
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -2208,7 +2207,7 @@
       <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -2232,7 +2231,7 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -2256,7 +2255,7 @@
       <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -2280,7 +2279,7 @@
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -2304,7 +2303,7 @@
       <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2328,7 +2327,7 @@
       <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -2352,7 +2351,7 @@
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -2376,7 +2375,7 @@
       <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -2400,7 +2399,7 @@
       <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -2424,7 +2423,7 @@
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -2457,7 +2456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2491,7 +2490,7 @@
       <c r="E4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -2506,7 +2505,7 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -2521,7 +2520,7 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -2536,7 +2535,7 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -2551,7 +2550,7 @@
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -2566,7 +2565,7 @@
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -2581,7 +2580,7 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2596,7 +2595,7 @@
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -2611,7 +2610,7 @@
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2620,14 +2619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H194" sqref="H194"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2643,8 +2642,8 @@
     <col min="10" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2681,8 +2680,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2730,8 +2729,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2779,13 +2778,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2927,13 +2926,13 @@
       <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="2" t="s">
         <v>265</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -2953,13 +2952,13 @@
       <c r="E33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="2" t="s">
         <v>327</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -2976,19 +2975,19 @@
       <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3005,13 +3004,13 @@
       <c r="E35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="2" t="s">
         <v>242</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -3031,13 +3030,13 @@
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="2" t="s">
         <v>240</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -3080,10 +3079,10 @@
       <c r="D38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="2" t="s">
         <v>85</v>
       </c>
@@ -3140,23 +3139,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="43" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B43" s="11" t="s">
+    <row r="43" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -3240,13 +3229,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B52" s="11" t="s">
+    <row r="52" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B52" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -3285,8 +3274,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B58" s="11" t="s">
+    <row r="58" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3300,13 +3289,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B64" s="11" t="s">
+    <row r="64" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B64" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3369,13 +3358,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:6" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B76" s="11" t="s">
+    <row r="76" spans="2:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B76" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3595,13 +3584,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B93" s="11" t="s">
+    <row r="93" spans="2:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B93" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="7" t="s">
         <v>274</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -3632,13 +3621,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B101" s="11" t="s">
+    <row r="101" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B101" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3715,13 +3704,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B108" s="11" t="s">
+    <row r="108" spans="2:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B108" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="7" t="s">
         <v>274</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -3753,13 +3742,13 @@
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B115" s="11" t="s">
+    <row r="115" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B115" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -3842,13 +3831,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B125" s="11" t="s">
+    <row r="125" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B125" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="7" t="s">
         <v>297</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -3907,8 +3896,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="2:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B133" s="11" t="s">
+    <row r="133" spans="2:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B133" s="10" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3918,7 +3907,7 @@
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="7" t="s">
         <v>297</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -3973,8 +3962,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B146" s="11" t="s">
+    <row r="146" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B146" s="10" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4005,8 +3994,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B155" s="11" t="s">
+    <row r="155" spans="2:4" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B155" s="10" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4047,8 +4036,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="2:3" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B165" s="11" t="s">
+    <row r="165" spans="2:3" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B165" s="10" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4073,8 +4062,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="2:3" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B173" s="11" t="s">
+    <row r="173" spans="2:3" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B173" s="10" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4509,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4535,7 +4524,7 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -4544,7 +4533,7 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -4553,7 +4542,7 @@
       <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4563,7 +4552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4589,7 +4578,7 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -4598,7 +4587,7 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -4607,7 +4596,7 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -4616,7 +4605,7 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -4625,7 +4614,7 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4635,7 +4624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4661,7 +4650,7 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -4670,7 +4659,7 @@
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -4679,7 +4668,7 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -4688,7 +4677,7 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -4697,7 +4686,7 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4707,7 +4696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4771,7 +4760,7 @@
       <c r="L4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -4807,7 +4796,7 @@
       <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -4843,7 +4832,7 @@
       <c r="L6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -4879,7 +4868,7 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -4915,7 +4904,7 @@
       <c r="L8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="13"/>
+      <c r="N8"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -4951,7 +4940,7 @@
       <c r="L9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -4987,7 +4976,7 @@
       <c r="L10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5023,7 +5012,7 @@
       <c r="L11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -5059,7 +5048,7 @@
       <c r="L12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -5095,7 +5084,7 @@
       <c r="L13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="13"/>
+      <c r="N13"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -5131,21 +5120,21 @@
       <c r="L14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="13"/>
+      <c r="N14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H9" r:id="rId5"/>
-    <hyperlink ref="H10" r:id="rId6"/>
-    <hyperlink ref="H11" r:id="rId7"/>
-    <hyperlink ref="H12" r:id="rId8"/>
-    <hyperlink ref="H13" r:id="rId9"/>
-    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -5153,7 +5142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5179,7 +5168,7 @@
       <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5188,7 +5177,7 @@
       <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5197,7 +5186,7 @@
       <c r="C6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -5206,7 +5195,7 @@
       <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5215,7 +5204,7 @@
       <c r="C8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -5224,7 +5213,7 @@
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5234,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5290,7 +5279,7 @@
       <c r="J4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5320,7 +5309,7 @@
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5350,7 +5339,7 @@
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -5380,7 +5369,7 @@
       <c r="J7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5410,7 +5399,7 @@
       <c r="J8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -5440,7 +5429,7 @@
       <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="13"/>
+      <c r="L9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5470,7 +5459,7 @@
       <c r="J10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5500,7 +5489,7 @@
       <c r="J11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -5530,7 +5519,7 @@
       <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -5560,7 +5549,7 @@
       <c r="J13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -5590,20 +5579,20 @@
       <c r="J14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
-    <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H10" r:id="rId6"/>
-    <hyperlink ref="H11" r:id="rId7"/>
-    <hyperlink ref="H12" r:id="rId8"/>
-    <hyperlink ref="H13" r:id="rId9"/>
-    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -5612,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5639,8 +5628,8 @@
       <c r="C4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5649,8 +5638,8 @@
       <c r="C5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5659,8 +5648,8 @@
       <c r="C6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -5669,8 +5658,8 @@
       <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5679,8 +5668,8 @@
       <c r="C8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
